--- a/Resources/data/Versión_2.0/Retorno a la presencialidad_ Estados 2021 FINAL.xlsx
+++ b/Resources/data/Versión_2.0/Retorno a la presencialidad_ Estados 2021 FINAL.xlsx
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="534">
   <si>
     <t>Etiquetas de fila</t>
   </si>
@@ -1368,6 +1368,9 @@
   </si>
   <si>
     <t>Cambio de estatus y nuevas fuentes</t>
+  </si>
+  <si>
+    <t>Baja California Norte</t>
   </si>
   <si>
     <t>30 de agosto</t>
@@ -6891,7 +6894,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7029,22 +7032,22 @@
         <v>228</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>229</v>
+        <v>361</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>353</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F4" t="s">
         <v>355</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I4" t="s">
         <v>248</v>
@@ -7053,16 +7056,16 @@
         <v>248</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L4" s="71" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
@@ -7082,10 +7085,10 @@
         <v>264</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H5" s="50" t="s">
         <v>266</v>
@@ -7100,10 +7103,10 @@
         <v>0.788</v>
       </c>
       <c r="L5" s="73" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M5" s="61" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N5" s="83" t="s">
         <v>360</v>
@@ -7120,37 +7123,37 @@
         <v>233</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>264</v>
       </c>
       <c r="F6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="I6" t="s">
+        <v>248</v>
+      </c>
+      <c r="J6" t="s">
+        <v>248</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="M6" s="84" t="s">
+        <v>377</v>
+      </c>
+      <c r="N6" s="20" t="s">
         <v>368</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="I6" t="s">
-        <v>248</v>
-      </c>
-      <c r="J6" t="s">
-        <v>248</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="M6" s="84" t="s">
-        <v>376</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:14">
@@ -7167,16 +7170,16 @@
         <v>353</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F7" t="s">
         <v>355</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I7" t="s">
         <v>248</v>
@@ -7185,16 +7188,16 @@
         <v>248</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M7" s="85" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
@@ -7208,42 +7211,42 @@
         <v>237</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>264</v>
       </c>
       <c r="F8" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="I8" t="s">
+        <v>248</v>
+      </c>
+      <c r="J8" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="L8" s="74" t="s">
+        <v>386</v>
+      </c>
+      <c r="M8" s="85" t="s">
+        <v>387</v>
+      </c>
+      <c r="N8" s="20" t="s">
         <v>368</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>384</v>
-      </c>
-      <c r="I8" t="s">
-        <v>248</v>
-      </c>
-      <c r="J8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="L8" s="74" t="s">
-        <v>385</v>
-      </c>
-      <c r="M8" s="85" t="s">
-        <v>386</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="9" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A9" s="32" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>238</v>
@@ -7255,16 +7258,16 @@
         <v>353</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>355</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I9" s="29" t="s">
         <v>248</v>
@@ -7276,10 +7279,10 @@
         <v>1</v>
       </c>
       <c r="L9" s="56" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M9" s="86" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N9" s="83" t="s">
         <v>360</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="10" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="32" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>240</v>
@@ -7299,16 +7302,16 @@
         <v>353</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>355</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I10" s="29" t="s">
         <v>251</v>
@@ -7320,10 +7323,10 @@
         <v>0.95</v>
       </c>
       <c r="L10" s="76" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M10" s="87" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N10" s="83" t="s">
         <v>360</v>
@@ -7331,7 +7334,7 @@
     </row>
     <row r="11" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="32" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>242</v>
@@ -7343,16 +7346,16 @@
         <v>353</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>355</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I11" s="29" t="s">
         <v>248</v>
@@ -7364,18 +7367,18 @@
         <v>100</v>
       </c>
       <c r="L11" s="54" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M11" s="54" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N11" s="51" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A12" s="41" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B12" s="42" t="s">
         <v>244</v>
@@ -7384,19 +7387,19 @@
         <v>245</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>264</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G12" s="57" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H12" s="58" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>264</v>
@@ -7408,18 +7411,18 @@
         <v>100</v>
       </c>
       <c r="L12" s="58" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="37" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>246</v>
@@ -7437,7 +7440,7 @@
         <v>355</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>250</v>
@@ -7455,15 +7458,15 @@
         <v>252</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A14" s="32" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>254</v>
@@ -7472,7 +7475,7 @@
         <v>255</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E14" s="60" t="s">
         <v>257</v>
@@ -7481,7 +7484,7 @@
         <v>355</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H14" s="61" t="s">
         <v>259</v>
@@ -7493,21 +7496,21 @@
         <v>248</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L14" s="61" t="s">
         <v>260</v>
       </c>
       <c r="M14" s="51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N14" s="83" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="32" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>262</v>
@@ -7522,10 +7525,10 @@
         <v>266</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H15" s="61" t="s">
         <v>268</v>
@@ -7543,15 +7546,15 @@
         <v>269</v>
       </c>
       <c r="M15" s="51" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N15" s="83" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="37" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>271</v>
@@ -7569,7 +7572,7 @@
         <v>355</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>275</v>
@@ -7581,27 +7584,27 @@
         <v>248</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>276</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="32" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>278</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>353</v>
@@ -7613,7 +7616,7 @@
         <v>355</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H17" s="61" t="s">
         <v>282</v>
@@ -7625,21 +7628,21 @@
         <v>248</v>
       </c>
       <c r="K17" s="50" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L17" s="61" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M17" s="51" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N17" s="83" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="37" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>285</v>
@@ -7669,21 +7672,21 @@
         <v>248</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L18" s="20" t="s">
         <v>290</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A19" s="37" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B19" s="42" t="s">
         <v>292</v>
@@ -7713,16 +7716,16 @@
         <v>248</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L19" s="65" t="s">
         <v>297</v>
       </c>
       <c r="M19" s="58" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:14">
@@ -7736,19 +7739,19 @@
         <v>300</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G20" s="66" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I20" t="s">
         <v>248</v>
@@ -7757,21 +7760,21 @@
         <v>248</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="36" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>304</v>
@@ -7780,19 +7783,19 @@
         <v>305</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F21" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H21" s="58" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I21" t="s">
         <v>264</v>
@@ -7810,12 +7813,12 @@
         <v>308</v>
       </c>
       <c r="N21" s="58" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1" spans="1:14">
       <c r="A22" s="36" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B22" s="37" t="s">
         <v>309</v>
@@ -7824,19 +7827,19 @@
         <v>310</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F22" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>311</v>
       </c>
       <c r="H22" s="58" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I22" t="s">
         <v>248</v>
@@ -7848,18 +7851,18 @@
         <v>100</v>
       </c>
       <c r="L22" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="N22" s="58" t="s">
         <v>426</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="N22" s="58" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="36" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B23" s="37" t="s">
         <v>314</v>
@@ -7871,16 +7874,16 @@
         <v>353</v>
       </c>
       <c r="E23" s="63" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F23" t="s">
         <v>355</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I23" t="s">
         <v>251</v>
@@ -7892,18 +7895,18 @@
         <v>0.95</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N23" s="58" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A24" s="32" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>316</v>
@@ -7915,16 +7918,16 @@
         <v>353</v>
       </c>
       <c r="E24" s="62" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>355</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H24" s="61" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I24" s="29" t="s">
         <v>248</v>
@@ -7936,18 +7939,18 @@
         <v>0.9527</v>
       </c>
       <c r="L24" s="61" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M24" s="87" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N24" s="83" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="36" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B25" s="37" t="s">
         <v>318</v>
@@ -7965,10 +7968,10 @@
         <v>355</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I25" t="s">
         <v>248</v>
@@ -7980,18 +7983,18 @@
         <v>0.756</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M25" s="85" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N25" s="58" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="36" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B26" s="37" t="s">
         <v>320</v>
@@ -8000,22 +8003,22 @@
         <v>321</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E26" s="63" t="s">
         <v>266</v>
       </c>
       <c r="F26" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I26" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J26" t="s">
         <v>248</v>
@@ -8024,18 +8027,18 @@
         <v>0.9</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N26" s="58" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="36" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B27" s="37" t="s">
         <v>322</v>
@@ -8044,19 +8047,19 @@
         <v>323</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E27" s="63" t="s">
         <v>266</v>
       </c>
       <c r="F27" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I27" t="s">
         <v>248</v>
@@ -8068,18 +8071,18 @@
         <v>0.9</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N27" s="58" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="36" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B28" s="37" t="s">
         <v>324</v>
@@ -8088,19 +8091,19 @@
         <v>325</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E28" s="63" t="s">
         <v>266</v>
       </c>
       <c r="F28" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I28" t="s">
         <v>248</v>
@@ -8112,18 +8115,18 @@
         <v>0.87</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N28" s="58" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="36" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B29" s="37" t="s">
         <v>326</v>
@@ -8141,10 +8144,10 @@
         <v>355</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I29" t="s">
         <v>248</v>
@@ -8153,21 +8156,21 @@
         <v>248</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M29" s="85" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N29" s="58" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="36" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B30" s="37" t="s">
         <v>328</v>
@@ -8179,16 +8182,16 @@
         <v>353</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F30" t="s">
         <v>355</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I30" t="s">
         <v>248</v>
@@ -8197,21 +8200,21 @@
         <v>248</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N30" s="58" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="31" ht="25" customHeight="1" spans="1:14">
       <c r="A31" s="36" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B31" s="37" t="s">
         <v>330</v>
@@ -8223,16 +8226,16 @@
         <v>353</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F31" t="s">
         <v>355</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I31" t="s">
         <v>248</v>
@@ -8241,21 +8244,21 @@
         <v>248</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N31" s="58" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1" spans="1:14">
       <c r="A32" s="36" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B32" s="37" t="s">
         <v>332</v>
@@ -8267,16 +8270,16 @@
         <v>353</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F32" t="s">
         <v>355</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I32" t="s">
         <v>248</v>
@@ -8285,21 +8288,21 @@
         <v>248</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L32" s="20" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N32" s="58" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1" spans="1:14">
       <c r="A33" s="36" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B33" s="37" t="s">
         <v>334</v>
@@ -8311,16 +8314,16 @@
         <v>353</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F33" t="s">
         <v>355</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I33" t="s">
         <v>248</v>
@@ -8329,21 +8332,21 @@
         <v>248</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N33" s="58" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1" spans="1:14">
       <c r="A34" s="36" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B34" s="37" t="s">
         <v>336</v>
@@ -8352,19 +8355,19 @@
         <v>337</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F34" t="s">
         <v>355</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I34" t="s">
         <v>248</v>
@@ -8376,13 +8379,13 @@
         <v>0.906</v>
       </c>
       <c r="L34" s="20" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N34" s="58" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" spans="7:7">
@@ -8544,7 +8547,7 @@
       </c>
       <c r="E3" s="24"/>
       <c r="G3" s="20" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>289</v>
@@ -8562,7 +8565,7 @@
         <v>358</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" ht="99.75" spans="1:13">
@@ -8589,7 +8592,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" ht="71.25" spans="1:13">
@@ -8603,7 +8606,7 @@
         <v>231</v>
       </c>
       <c r="D5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G5" s="8"/>
       <c r="I5" t="s">
@@ -8614,7 +8617,7 @@
       </c>
       <c r="K5" s="3"/>
       <c r="M5" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:13">
@@ -8628,7 +8631,7 @@
         <v>233</v>
       </c>
       <c r="D6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E6" s="8"/>
       <c r="G6" s="8"/>
@@ -8641,7 +8644,7 @@
       </c>
       <c r="K6" s="3"/>
       <c r="M6" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" ht="71.25" spans="1:13">
@@ -8666,7 +8669,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" ht="128.25" spans="1:13">
@@ -8680,7 +8683,7 @@
         <v>237</v>
       </c>
       <c r="D8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -8693,12 +8696,12 @@
       <c r="K8" s="3"/>
       <c r="L8" s="21"/>
       <c r="M8" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:13">
       <c r="A9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>238</v>
@@ -8707,7 +8710,7 @@
         <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G9" s="8"/>
       <c r="I9" t="s">
@@ -8719,12 +8722,12 @@
       <c r="K9" s="3"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:13">
       <c r="A10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>240</v>
@@ -8733,7 +8736,7 @@
         <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G10" s="8"/>
       <c r="I10" t="s">
@@ -8745,12 +8748,12 @@
       <c r="K10" s="3"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:13">
       <c r="A11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>242</v>
@@ -8759,7 +8762,7 @@
         <v>243</v>
       </c>
       <c r="D11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G11" s="8"/>
       <c r="I11" t="s">
@@ -8771,12 +8774,12 @@
       <c r="K11" s="3"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>244</v>
@@ -8785,7 +8788,7 @@
         <v>245</v>
       </c>
       <c r="D12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="8"/>
@@ -8798,12 +8801,12 @@
       <c r="K12" s="3"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" ht="71.25" spans="1:13">
       <c r="A13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>246</v>
@@ -8831,7 +8834,7 @@
     </row>
     <row r="14" ht="114" spans="1:13">
       <c r="A14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>254</v>
@@ -8859,7 +8862,7 @@
     </row>
     <row r="15" ht="57" spans="1:13">
       <c r="A15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>262</v>
@@ -8868,7 +8871,7 @@
         <v>263</v>
       </c>
       <c r="D15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E15" s="8"/>
       <c r="G15" s="8"/>
@@ -8887,7 +8890,7 @@
     </row>
     <row r="16" ht="248.4" customHeight="1" spans="1:13">
       <c r="A16" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>271</v>
@@ -8915,7 +8918,7 @@
     </row>
     <row r="17" ht="128.25" spans="1:13">
       <c r="A17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>278</v>
@@ -8924,7 +8927,7 @@
         <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E17" s="8"/>
       <c r="G17" s="8"/>
@@ -8943,7 +8946,7 @@
     </row>
     <row r="18" ht="85.5" spans="1:13">
       <c r="A18" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>285</v>
@@ -8971,7 +8974,7 @@
     </row>
     <row r="19" ht="28.5" spans="1:13">
       <c r="A19" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>292</v>
@@ -9008,7 +9011,7 @@
         <v>300</v>
       </c>
       <c r="D20" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E20" s="14"/>
       <c r="G20" s="8"/>
@@ -9027,7 +9030,7 @@
     </row>
     <row r="21" ht="99.75" spans="1:13">
       <c r="A21" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>304</v>
@@ -9036,7 +9039,7 @@
         <v>305</v>
       </c>
       <c r="D21" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E21" s="15"/>
       <c r="G21" s="8"/>
@@ -9055,7 +9058,7 @@
     </row>
     <row r="22" ht="28.5" spans="1:13">
       <c r="A22" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>309</v>
@@ -9064,7 +9067,7 @@
         <v>310</v>
       </c>
       <c r="D22" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E22" s="15"/>
       <c r="G22" s="8"/>
@@ -9083,7 +9086,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>314</v>
@@ -9106,12 +9109,12 @@
       <c r="K23" s="3"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>316</v>
@@ -9134,12 +9137,12 @@
       <c r="K24" s="3"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" ht="28.5" spans="1:13">
       <c r="A25" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>318</v>
@@ -9162,12 +9165,12 @@
       <c r="K25" s="3"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" ht="28.5" spans="1:13">
       <c r="A26" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>320</v>
@@ -9176,7 +9179,7 @@
         <v>321</v>
       </c>
       <c r="D26" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E26" s="8"/>
       <c r="G26" s="8"/>
@@ -9190,12 +9193,12 @@
       <c r="K26" s="3"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" ht="28.5" spans="1:13">
       <c r="A27" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>322</v>
@@ -9204,7 +9207,7 @@
         <v>323</v>
       </c>
       <c r="D27" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E27" s="8"/>
       <c r="G27" s="8"/>
@@ -9218,12 +9221,12 @@
       <c r="K27" s="3"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>324</v>
@@ -9232,7 +9235,7 @@
         <v>325</v>
       </c>
       <c r="D28" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E28" s="8"/>
       <c r="G28" s="8"/>
@@ -9246,12 +9249,12 @@
       <c r="K28" s="3"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" ht="28.5" spans="1:13">
       <c r="A29" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>326</v>
@@ -9274,12 +9277,12 @@
       <c r="K29" s="3"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>328</v>
@@ -9302,12 +9305,12 @@
       <c r="K30" s="3"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>330</v>
@@ -9330,12 +9333,12 @@
       <c r="K31" s="3"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>332</v>
@@ -9358,12 +9361,12 @@
       <c r="K32" s="3"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>334</v>
@@ -9386,12 +9389,12 @@
       <c r="K33" s="3"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>336</v>
@@ -9414,7 +9417,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -9485,7 +9488,7 @@
         <v>345</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>347</v>
@@ -9517,13 +9520,13 @@
         <v>353</v>
       </c>
       <c r="D3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E3" t="s">
         <v>256</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>357</v>
@@ -9538,10 +9541,10 @@
         <v>32</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" ht="128.25" spans="1:12">
@@ -9555,16 +9558,16 @@
         <v>353</v>
       </c>
       <c r="D4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -9576,10 +9579,10 @@
         <v>32</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" ht="71.25" spans="1:12">
@@ -9590,19 +9593,19 @@
         <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" ht="57" spans="1:12">
@@ -9613,19 +9616,19 @@
         <v>233</v>
       </c>
       <c r="C6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H6" t="s">
         <v>32</v>
@@ -9637,7 +9640,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" ht="71.25" spans="1:12">
@@ -9651,7 +9654,7 @@
         <v>353</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E7" t="s">
         <v>256</v>
@@ -9666,10 +9669,10 @@
         <v>32</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" ht="171" spans="1:12">
@@ -9680,19 +9683,19 @@
         <v>237</v>
       </c>
       <c r="C8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D8" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
@@ -9704,10 +9707,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" ht="114" spans="1:12">
@@ -9718,19 +9721,19 @@
         <v>239</v>
       </c>
       <c r="C9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E9" t="s">
         <v>256</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H9" t="s">
         <v>256</v>
@@ -9742,10 +9745,10 @@
         <v>32</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:12">
@@ -9756,19 +9759,19 @@
         <v>241</v>
       </c>
       <c r="C10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H10" t="s">
         <v>256</v>
@@ -9780,10 +9783,10 @@
         <v>256</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" ht="42.75" spans="1:12">
@@ -9794,34 +9797,34 @@
         <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D11" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J11" t="s">
         <v>32</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" ht="128.25" spans="1:12">
@@ -9832,16 +9835,16 @@
         <v>245</v>
       </c>
       <c r="C12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D12" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H12" t="s">
         <v>256</v>
@@ -9853,10 +9856,10 @@
         <v>32</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" ht="43.2" customHeight="1" spans="1:12">
@@ -9943,7 +9946,7 @@
         <v>263</v>
       </c>
       <c r="C15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>265</v>
@@ -10019,7 +10022,7 @@
         <v>125</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>279</v>
@@ -10133,7 +10136,7 @@
         <v>300</v>
       </c>
       <c r="C20" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>301</v>
@@ -10171,7 +10174,7 @@
         <v>305</v>
       </c>
       <c r="C21" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>301</v>
@@ -10209,7 +10212,7 @@
         <v>310</v>
       </c>
       <c r="C22" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>301</v>
@@ -10250,14 +10253,14 @@
         <v>353</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>36</v>
@@ -10269,10 +10272,10 @@
         <v>37</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" ht="28.5" spans="1:12">
@@ -10286,16 +10289,16 @@
         <v>353</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>32</v>
@@ -10308,7 +10311,7 @@
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" ht="156.75" spans="1:12">
@@ -10322,16 +10325,16 @@
         <v>353</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>32</v>
@@ -10343,10 +10346,10 @@
         <v>37</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" ht="99.75" spans="1:12">
@@ -10357,22 +10360,22 @@
         <v>321</v>
       </c>
       <c r="C26" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>32</v>
@@ -10381,10 +10384,10 @@
         <v>37</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" ht="114" spans="1:12">
@@ -10395,19 +10398,19 @@
         <v>323</v>
       </c>
       <c r="C27" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>32</v>
@@ -10419,10 +10422,10 @@
         <v>37</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" ht="57" spans="1:12">
@@ -10433,17 +10436,17 @@
         <v>325</v>
       </c>
       <c r="C28" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>32</v>
@@ -10455,10 +10458,10 @@
         <v>37</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" ht="85.5" spans="1:12">
@@ -10472,10 +10475,10 @@
         <v>353</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -10489,10 +10492,10 @@
         <v>37</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" ht="57" spans="1:12">
@@ -10509,11 +10512,11 @@
         <v>32</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>32</v>
@@ -10525,10 +10528,10 @@
         <v>37</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" ht="71.25" spans="1:12">
@@ -10542,14 +10545,14 @@
         <v>353</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>32</v>
@@ -10561,10 +10564,10 @@
         <v>37</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" ht="185.25" spans="1:12">
@@ -10578,14 +10581,14 @@
         <v>353</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>32</v>
@@ -10597,10 +10600,10 @@
         <v>37</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" ht="85.5" spans="1:12">
@@ -10614,14 +10617,14 @@
         <v>353</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>32</v>
@@ -10633,10 +10636,10 @@
         <v>37</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="34" ht="99.75" spans="1:12">
@@ -10650,7 +10653,7 @@
         <v>353</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>32</v>
@@ -10667,10 +10670,10 @@
         <v>37</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -10715,7 +10718,7 @@
         <v>345</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>347</v>
@@ -10752,7 +10755,7 @@
         <v>251</v>
       </c>
       <c r="E5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>251</v>
@@ -10760,7 +10763,7 @@
     </row>
     <row r="6" spans="3:8">
       <c r="C6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>264</v>
@@ -10768,10 +10771,10 @@
     </row>
     <row r="7" spans="3:8">
       <c r="C7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/data/Versión_2.0/Retorno a la presencialidad_ Estados 2021 FINAL.xlsx
+++ b/Resources/data/Versión_2.0/Retorno a la presencialidad_ Estados 2021 FINAL.xlsx
@@ -1887,8 +1887,7 @@
     <t>Regreso a Clases Presenciales</t>
   </si>
   <si>
-    <t xml:space="preserve">
-De acuerdo con la encuesta realizada por la Secretaría de Educación de Zacatecas (SEZ) a 101 mil 808 madres, padres de familia y tutores, el 81.3 por ciento dijo que está de acuerdo en que niñas, niños y adolescentes regresen a las escuelas de educación básica de manera presencial. El 92.3 por ciento se mostró dispuesto a colaborar en el establecimiento de los filtros sanitarios en casa, escuela y salón de clases, tal como lo establecen los protocolos de la Secretaría de Educación Pública (SEP). Se respetará la sana distancia, se suspenderán las ceremonias y los alumnos tendrán acceso a jabón, agua y gel alcoholado.
+    <t>De acuerdo con la encuesta realizada por la Secretaría de Educación de Zacatecas (SEZ) a 101 mil 808 madres, padres de familia y tutores, el 81.3 por ciento dijo que está de acuerdo en que niñas, niños y adolescentes regresen a las escuelas de educación básica de manera presencial. El 92.3 por ciento se mostró dispuesto a colaborar en el establecimiento de los filtros sanitarios en casa, escuela y salón de clases, tal como lo establecen los protocolos de la Secretaría de Educación Pública (SEP). Se respetará la sana distancia, se suspenderán las ceremonias y los alumnos tendrán acceso a jabón, agua y gel alcoholado.
 LA UAZ hará encuesta de movilidad y convivencia, “ya se tienen claros los protocolos de seguridad, de sanitización para todos los espacios, solo veremos si será escalonado, de acuerdo a los espacios o por nivel educativo, sin embargo, la decisión se tomará en agosto</t>
   </si>
   <si>
@@ -2989,9 +2988,9 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3070,18 +3069,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3089,22 +3076,39 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3113,55 +3117,35 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3174,17 +3158,14 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="48" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="48" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="48" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="48" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="48" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="48" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3233,13 +3214,13 @@
     <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3251,16 +3232,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3287,13 +3271,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3876,48 +3860,48 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="128">
+      <c r="B4" s="117">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="128">
+      <c r="B5" s="117">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="128">
+      <c r="B6" s="117">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="128">
+      <c r="B7" s="117">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="128"/>
+      <c r="B8" s="117"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="128">
+      <c r="B9" s="117">
         <v>30</v>
       </c>
     </row>
@@ -3957,15 +3941,15 @@
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" ht="47.25" customHeight="1" spans="1:14">
@@ -4012,1824 +3996,1824 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="117" customFormat="1" ht="45" hidden="1" customHeight="1" spans="1:14">
-      <c r="A3" s="119" t="s">
+    <row r="3" s="106" customFormat="1" ht="45" hidden="1" customHeight="1" spans="1:14">
+      <c r="A3" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="121">
+      <c r="E3" s="110">
         <v>44287</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="122" t="s">
+      <c r="G3" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="122" t="s">
+      <c r="H3" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="119" t="s">
+      <c r="I3" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="119" t="s">
+      <c r="J3" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="119" t="s">
+      <c r="K3" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="119" t="s">
+      <c r="L3" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="119" t="s">
+      <c r="M3" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="123" t="s">
+      <c r="N3" s="112" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="99.75" hidden="1" spans="1:14">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="89" t="s">
+      <c r="D4" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="92" t="s">
+      <c r="F4" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="I4" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="89" t="s">
+      <c r="J4" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="89" t="s">
+      <c r="L4" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="92" t="s">
+      <c r="M4" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="93" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" ht="104.25" hidden="1" customHeight="1" spans="1:14">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="90" t="s">
+      <c r="D5" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="94" t="s">
+      <c r="H5" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="89" t="s">
+      <c r="I5" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="89" t="s">
+      <c r="J5" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="89" t="s">
+      <c r="L5" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="90" t="s">
+      <c r="M5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="106" t="s">
+      <c r="N5" s="94" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="109"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="97"/>
     </row>
     <row r="7" ht="249.75" hidden="1" customHeight="1" spans="1:14">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="89" t="s">
+      <c r="I7" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="89" t="s">
+      <c r="L7" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="90" t="s">
+      <c r="M7" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="107" t="s">
+      <c r="N7" s="95" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" ht="169.5" hidden="1" customHeight="1" spans="1:14">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="89" t="s">
+      <c r="D8" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="90" t="s">
+      <c r="F8" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="94" t="s">
+      <c r="H8" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="90" t="s">
+      <c r="I8" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="90" t="s">
+      <c r="L8" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="90" t="s">
+      <c r="M8" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="107" t="s">
+      <c r="N8" s="95" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" ht="128.25" hidden="1" spans="1:14">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="96" t="s">
+      <c r="D9" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="90" t="s">
+      <c r="F9" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="90" t="s">
+      <c r="H9" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="90" t="s">
+      <c r="I9" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="90" t="s">
+      <c r="M9" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="107" t="s">
+      <c r="N9" s="95" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" ht="85.5" hidden="1" spans="1:14">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="95" t="s">
+      <c r="D10" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="89" t="s">
+      <c r="F10" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="90" t="s">
+      <c r="G10" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="89" t="s">
+      <c r="H10" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="89" t="s">
+      <c r="I10" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="89" t="s">
+      <c r="L10" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="108" t="s">
+      <c r="M10" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="105" t="s">
+      <c r="N10" s="93" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" ht="71.25" hidden="1" spans="1:14">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="89" t="s">
+      <c r="D11" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="90" t="s">
+      <c r="F11" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="92" t="s">
+      <c r="H11" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="92" t="s">
+      <c r="I11" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="89" t="s">
+      <c r="J11" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="89" t="s">
+      <c r="L11" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="90" t="s">
+      <c r="M11" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="105" t="s">
+      <c r="N11" s="93" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="89"/>
-      <c r="B12" s="89" t="s">
+      <c r="A12" s="77"/>
+      <c r="B12" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="109"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="97"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="89"/>
-      <c r="B13" s="89" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="109"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="97"/>
     </row>
     <row r="14" ht="108.75" hidden="1" customHeight="1" spans="1:14">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="89" t="s">
+      <c r="D14" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="90" t="s">
+      <c r="F14" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="94" t="s">
+      <c r="H14" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="89" t="s">
+      <c r="I14" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="89" t="s">
+      <c r="L14" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="90" t="s">
+      <c r="M14" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="N14" s="109" t="s">
+      <c r="N14" s="97" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" ht="142.5" hidden="1" spans="1:14">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="89" t="s">
+      <c r="D15" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="90" t="s">
+      <c r="F15" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="90" t="s">
+      <c r="H15" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="90" t="s">
+      <c r="I15" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="90" t="s">
+      <c r="L15" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="90" t="s">
+      <c r="M15" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="110" t="s">
+      <c r="N15" s="98" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="89"/>
-      <c r="B16" s="89" t="s">
+      <c r="A16" s="77"/>
+      <c r="B16" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="109"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="97"/>
     </row>
     <row r="17" ht="330" hidden="1" customHeight="1" spans="1:16">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="89" t="s">
+      <c r="D17" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="95" t="s">
+      <c r="E17" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="89" t="s">
+      <c r="F17" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="92" t="s">
+      <c r="G17" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="97" t="s">
+      <c r="H17" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="89" t="s">
+      <c r="I17" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="89" t="s">
+      <c r="K17" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="89" t="s">
+      <c r="L17" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="90" t="s">
+      <c r="M17" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="105" t="s">
+      <c r="N17" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="O17" s="111"/>
-      <c r="P17" s="111"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
     </row>
     <row r="18" ht="313.5" hidden="1" spans="1:14">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="95" t="s">
+      <c r="D18" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="92" t="s">
+      <c r="F18" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="94" t="s">
+      <c r="H18" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="94" t="s">
+      <c r="I18" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="94" t="s">
+      <c r="J18" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="94" t="s">
+      <c r="K18" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="94" t="s">
+      <c r="L18" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="92" t="s">
+      <c r="M18" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="N18" s="124" t="s">
+      <c r="N18" s="113" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="89"/>
-      <c r="B19" s="89" t="s">
+      <c r="A19" s="77"/>
+      <c r="B19" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="109"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="97"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="89"/>
-      <c r="B20" s="89" t="s">
+      <c r="A20" s="77"/>
+      <c r="B20" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="109"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="97"/>
     </row>
     <row r="21" ht="213.75" hidden="1" spans="1:14">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="89" t="s">
+      <c r="D21" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="92" t="s">
+      <c r="F21" s="77"/>
+      <c r="G21" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="89" t="s">
+      <c r="H21" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="89" t="s">
+      <c r="I21" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L21" s="89" t="s">
+      <c r="L21" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M21" s="92" t="s">
+      <c r="M21" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="N21" s="115" t="s">
+      <c r="N21" s="104" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="89"/>
-      <c r="B22" s="89" t="s">
+      <c r="A22" s="77"/>
+      <c r="B22" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="109"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="97"/>
     </row>
     <row r="23" ht="256.5" hidden="1" spans="1:14">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="89" t="s">
+      <c r="D23" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="92" t="s">
+      <c r="F23" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="94" t="s">
+      <c r="H23" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="89" t="s">
+      <c r="I23" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" s="92" t="s">
+      <c r="J23" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="N23" s="112" t="s">
+      <c r="N23" s="101" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24" ht="142.5" hidden="1" spans="1:14">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="90" t="s">
+      <c r="E24" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="92" t="s">
+      <c r="F24" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="92" t="s">
+      <c r="H24" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="I24" s="89" t="s">
+      <c r="I24" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="89" t="s">
+      <c r="J24" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M24" s="92" t="s">
+      <c r="M24" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="N24" s="125" t="s">
+      <c r="N24" s="114" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25" ht="57" hidden="1" spans="1:14">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="96" t="s">
+      <c r="D25" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="90" t="s">
+      <c r="F25" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="90" t="s">
+      <c r="H25" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="I25" s="94" t="s">
+      <c r="I25" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="89" t="s">
+      <c r="J25" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="89" t="s">
+      <c r="L25" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M25" s="90" t="s">
+      <c r="M25" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="N25" s="105" t="s">
+      <c r="N25" s="93" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="89"/>
-      <c r="B26" s="89" t="s">
+      <c r="A26" s="77"/>
+      <c r="B26" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="109"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="97"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="89"/>
-      <c r="B27" s="89" t="s">
+      <c r="A27" s="77"/>
+      <c r="B27" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="109"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="97"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="89"/>
-      <c r="B28" s="89" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="109"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="97"/>
     </row>
     <row r="29" ht="99.75" hidden="1" spans="1:14">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="89" t="s">
+      <c r="B29" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="90" t="s">
+      <c r="D29" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="90" t="s">
+      <c r="E29" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="90" t="s">
+      <c r="F29" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="H29" s="94" t="s">
+      <c r="H29" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="90" t="s">
+      <c r="I29" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="L29" s="89" t="s">
+      <c r="L29" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M29" s="90" t="s">
+      <c r="M29" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="N29" s="126" t="s">
+      <c r="N29" s="115" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" ht="142.5" hidden="1" spans="1:14">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="96" t="s">
+      <c r="D30" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="90" t="s">
+      <c r="F30" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="89" t="s">
+      <c r="H30" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="89" t="s">
+      <c r="I30" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L30" s="89" t="s">
+      <c r="L30" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M30" s="90" t="s">
+      <c r="M30" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="N30" s="107" t="s">
+      <c r="N30" s="95" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="89"/>
-      <c r="B31" s="89" t="s">
+      <c r="A31" s="77"/>
+      <c r="B31" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="109"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="97"/>
     </row>
     <row r="32" ht="322.5" hidden="1" customHeight="1" spans="1:14">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="89" t="s">
+      <c r="C32" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="89" t="s">
+      <c r="D32" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="102" t="s">
+      <c r="E32" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="F32" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="90" t="s">
+      <c r="F32" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="94" t="s">
+      <c r="H32" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="94" t="s">
+      <c r="I32" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="J32" s="92" t="s">
+      <c r="J32" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="94" t="s">
+      <c r="K32" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="L32" s="89" t="s">
+      <c r="L32" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M32" s="94" t="s">
+      <c r="M32" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="N32" s="105" t="s">
+      <c r="N32" s="93" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="89"/>
-      <c r="B33" s="89" t="s">
+      <c r="A33" s="77"/>
+      <c r="B33" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="89" t="s">
+      <c r="C33" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89" t="s">
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="N33" s="109"/>
+      <c r="N33" s="97"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="89"/>
-      <c r="B34" s="89" t="s">
+      <c r="A34" s="77"/>
+      <c r="B34" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="89" t="s">
+      <c r="C34" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89" t="s">
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="N34" s="109"/>
+      <c r="N34" s="97"/>
     </row>
     <row r="35" ht="171" hidden="1" spans="1:14">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="94" t="s">
+      <c r="C35" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="103" t="s">
+      <c r="D35" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="92" t="s">
+      <c r="F35" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="92" t="s">
+      <c r="H35" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="I35" s="89" t="s">
+      <c r="I35" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="J35" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" s="92" t="s">
+      <c r="J35" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="N35" s="125" t="s">
+      <c r="N35" s="114" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="36" hidden="1" spans="1:14">
-      <c r="A36" s="89"/>
-      <c r="B36" s="89" t="s">
+      <c r="A36" s="77"/>
+      <c r="B36" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="89" t="s">
+      <c r="C36" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="D36" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89" t="s">
+      <c r="D36" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M36" s="89" t="s">
+      <c r="M36" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="N36" s="109"/>
+      <c r="N36" s="97"/>
     </row>
     <row r="37" hidden="1" spans="1:14">
-      <c r="A37" s="89"/>
-      <c r="B37" s="89" t="s">
+      <c r="A37" s="77"/>
+      <c r="B37" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="89" t="s">
+      <c r="C37" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89" t="s">
+      <c r="D37" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M37" s="89" t="s">
+      <c r="M37" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="109"/>
+      <c r="N37" s="97"/>
     </row>
     <row r="38" ht="42.75" hidden="1" spans="1:15">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="89" t="s">
+      <c r="C38" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="92" t="s">
+      <c r="D38" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="96" t="s">
+      <c r="E38" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="92" t="s">
+      <c r="F38" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="H38" s="97" t="s">
+      <c r="H38" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" s="89" t="s">
+      <c r="I38" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L38" s="89" t="s">
+      <c r="L38" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M38" s="90" t="s">
+      <c r="M38" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="N38" s="105" t="s">
+      <c r="N38" s="93" t="s">
         <v>161</v>
       </c>
-      <c r="O38" s="111"/>
+      <c r="O38" s="99"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="89"/>
-      <c r="B39" s="89" t="s">
+      <c r="A39" s="77"/>
+      <c r="B39" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="89" t="s">
+      <c r="C39" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="109"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="97"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="89"/>
-      <c r="B40" s="89" t="s">
+      <c r="A40" s="77"/>
+      <c r="B40" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="89" t="s">
+      <c r="C40" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="109"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="97"/>
     </row>
     <row r="41" ht="85.5" hidden="1" spans="1:14">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="89" t="s">
+      <c r="B41" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="89" t="s">
+      <c r="C41" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="D41" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="89" t="s">
+      <c r="D41" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="90" t="s">
+      <c r="F41" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="H41" s="89" t="s">
+      <c r="H41" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="I41" s="94" t="s">
+      <c r="I41" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="89" t="s">
+      <c r="J41" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L41" s="89" t="s">
+      <c r="L41" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M41" s="90" t="s">
+      <c r="M41" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="N41" s="114" t="s">
+      <c r="N41" s="103" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="42" ht="99.75" hidden="1" spans="1:14">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="89" t="s">
+      <c r="B42" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="96" t="s">
+      <c r="D42" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="F42" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="90" t="s">
+      <c r="F42" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="H42" s="92" t="s">
+      <c r="H42" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="I42" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="94" t="s">
+      <c r="I42" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="K42" s="89" t="s">
+      <c r="K42" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="89" t="s">
+      <c r="L42" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M42" s="90" t="s">
+      <c r="M42" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="N42" s="105" t="s">
+      <c r="N42" s="93" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="43" ht="285" hidden="1" spans="1:14">
-      <c r="A43" s="89" t="s">
+      <c r="A43" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="89" t="s">
+      <c r="B43" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="94" t="s">
+      <c r="C43" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="103" t="s">
+      <c r="D43" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="92" t="s">
+      <c r="F43" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="H43" s="92" t="s">
+      <c r="H43" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="I43" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K43" s="89" t="s">
+      <c r="I43" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L43" s="89" t="s">
+      <c r="L43" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M43" s="92" t="s">
+      <c r="M43" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="N43" s="115" t="s">
+      <c r="N43" s="104" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="44" ht="185.25" hidden="1" spans="1:14">
-      <c r="A44" s="89" t="s">
+      <c r="A44" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="89" t="s">
+      <c r="B44" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="94" t="s">
+      <c r="C44" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="103" t="s">
+      <c r="D44" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="92" t="s">
+      <c r="F44" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="H44" s="92" t="s">
+      <c r="H44" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="I44" s="89" t="s">
+      <c r="I44" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="J44" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="89" t="s">
+      <c r="J44" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L44" s="89" t="s">
+      <c r="L44" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M44" s="92" t="s">
+      <c r="M44" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="N44" s="115" t="s">
+      <c r="N44" s="104" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="45" ht="85.5" hidden="1" spans="1:14">
-      <c r="A45" s="89" t="s">
+      <c r="A45" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="89" t="s">
+      <c r="B45" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="89" t="s">
+      <c r="C45" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="92" t="s">
+      <c r="D45" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="E45" s="92" t="s">
+      <c r="E45" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="92" t="s">
+      <c r="F45" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="G45" s="90" t="s">
+      <c r="G45" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="H45" s="94" t="s">
+      <c r="H45" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="94" t="s">
+      <c r="I45" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="K45" s="94" t="s">
+      <c r="K45" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="L45" s="89" t="s">
+      <c r="L45" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M45" s="90" t="s">
+      <c r="M45" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="N45" s="107" t="s">
+      <c r="N45" s="95" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="46" ht="85.5" hidden="1" spans="1:14">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="89" t="s">
+      <c r="B46" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="89" t="s">
+      <c r="C46" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="D46" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="104" t="s">
+      <c r="D46" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="90" t="s">
+      <c r="F46" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="H46" s="90" t="s">
+      <c r="H46" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="I46" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="L46" s="90" t="s">
+      <c r="I46" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="M46" s="90" t="s">
+      <c r="M46" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="N46" s="107" t="s">
+      <c r="N46" s="95" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="89"/>
-      <c r="B47" s="89" t="s">
+      <c r="A47" s="77"/>
+      <c r="B47" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="89" t="s">
+      <c r="C47" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="109"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="77"/>
+      <c r="N47" s="97"/>
     </row>
     <row r="48" ht="114" hidden="1" spans="1:14">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="89" t="s">
+      <c r="B48" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="89" t="s">
+      <c r="C48" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="D48" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="96" t="s">
+      <c r="D48" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="90" t="s">
+      <c r="F48" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="H48" s="90" t="s">
+      <c r="H48" s="78" t="s">
         <v>201</v>
       </c>
-      <c r="I48" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="89" t="s">
+      <c r="I48" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L48" s="89" t="s">
+      <c r="L48" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M48" s="90" t="s">
+      <c r="M48" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="N48" s="107" t="s">
+      <c r="N48" s="95" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="89"/>
-      <c r="B49" s="89" t="s">
+      <c r="A49" s="77"/>
+      <c r="B49" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="89" t="s">
+      <c r="C49" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="89"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="109"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="97"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="89"/>
-      <c r="B50" s="89" t="s">
+      <c r="A50" s="77"/>
+      <c r="B50" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C50" s="89" t="s">
+      <c r="C50" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="89"/>
-      <c r="N50" s="109"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="77"/>
+      <c r="M50" s="77"/>
+      <c r="N50" s="97"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="89"/>
-      <c r="B51" s="89" t="s">
+      <c r="A51" s="77"/>
+      <c r="B51" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="89" t="s">
+      <c r="C51" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="109"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="77"/>
+      <c r="M51" s="77"/>
+      <c r="N51" s="97"/>
     </row>
     <row r="52" ht="114" hidden="1" spans="1:14">
-      <c r="A52" s="89" t="s">
+      <c r="A52" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="89" t="s">
+      <c r="B52" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="89" t="s">
+      <c r="C52" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="D52" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="89" t="s">
+      <c r="D52" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="F52" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="90" t="s">
+      <c r="F52" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="H52" s="92" t="s">
+      <c r="H52" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="I52" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="89" t="s">
+      <c r="I52" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L52" s="89" t="s">
+      <c r="L52" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M52" s="90" t="s">
+      <c r="M52" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="N52" s="109" t="s">
+      <c r="N52" s="97" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="53" ht="156.75" hidden="1" spans="1:14">
-      <c r="A53" s="89" t="s">
+      <c r="A53" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="89" t="s">
+      <c r="B53" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="89" t="s">
+      <c r="C53" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="D53" s="90" t="s">
+      <c r="D53" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="E53" s="89" t="s">
+      <c r="E53" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="F53" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="90" t="s">
+      <c r="F53" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="H53" s="94" t="s">
+      <c r="H53" s="82" t="s">
         <v>216</v>
       </c>
-      <c r="I53" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="K53" s="89" t="s">
+      <c r="I53" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L53" s="89" t="s">
+      <c r="L53" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M53" s="90" t="s">
+      <c r="M53" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="N53" s="116" t="s">
+      <c r="N53" s="105" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="89"/>
-      <c r="B54" s="89" t="s">
+      <c r="A54" s="77"/>
+      <c r="B54" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C54" s="89" t="s">
+      <c r="C54" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
-      <c r="K54" s="89"/>
-      <c r="L54" s="89"/>
-      <c r="M54" s="89"/>
-      <c r="N54" s="109"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="77"/>
+      <c r="M54" s="77"/>
+      <c r="N54" s="97"/>
     </row>
     <row r="55" ht="42.75" hidden="1" spans="1:14">
-      <c r="A55" s="89" t="s">
+      <c r="A55" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="89" t="s">
+      <c r="B55" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="89" t="s">
+      <c r="C55" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="D55" s="89" t="s">
+      <c r="D55" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E55" s="89" t="s">
+      <c r="E55" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="F55" s="89" t="s">
+      <c r="F55" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="G55" s="90" t="s">
+      <c r="G55" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="H55" s="90" t="s">
+      <c r="H55" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="I55" s="94" t="s">
+      <c r="I55" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="J55" s="94" t="s">
+      <c r="J55" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="K55" s="89" t="s">
+      <c r="K55" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="L55" s="89" t="s">
+      <c r="L55" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="M55" s="94" t="s">
+      <c r="M55" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="N55" s="105" t="s">
+      <c r="N55" s="93" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5908,15 +5892,15 @@
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" ht="47.25" customHeight="1" spans="1:14">
@@ -5964,7 +5948,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="77" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -5973,20 +5957,20 @@
       <c r="C3" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="105"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="93"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="77" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -5995,20 +5979,20 @@
       <c r="C4" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="106"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="94"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="77" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -6017,20 +6001,20 @@
       <c r="C5" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="107"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="95"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="77" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -6039,20 +6023,20 @@
       <c r="C6" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="107"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="95"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="77" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -6061,20 +6045,20 @@
       <c r="C7" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="107"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="95"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="77" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -6083,20 +6067,20 @@
       <c r="C8" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="105"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="93"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="77" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -6105,20 +6089,20 @@
       <c r="C9" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="105"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="93"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="77" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -6127,20 +6111,20 @@
       <c r="C10" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="109"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="97"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="77" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -6149,20 +6133,20 @@
       <c r="C11" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="110"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="98"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="77" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -6171,34 +6155,34 @@
       <c r="C12" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
     </row>
     <row r="13" ht="205.2" customHeight="1" spans="1:14">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="77" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="79" t="s">
         <v>247</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="98">
+      <c r="E13" s="86">
         <v>44438</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -6219,415 +6203,415 @@
       <c r="K13" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="L13" s="94" t="s">
+      <c r="L13" s="82" t="s">
         <v>251</v>
       </c>
       <c r="M13" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="N13" s="84" t="s">
+      <c r="N13" s="100" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="14" ht="185.4" customHeight="1" spans="1:14">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="77" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="79" t="s">
         <v>255</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="77" t="s">
         <v>256</v>
       </c>
-      <c r="E14" s="99" t="s">
+      <c r="E14" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="F14" s="92" t="s">
-        <v>248</v>
-      </c>
-      <c r="G14" s="92" t="s">
+      <c r="F14" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" s="80" t="s">
         <v>258</v>
       </c>
-      <c r="H14" s="94" t="s">
+      <c r="H14" s="82" t="s">
         <v>259</v>
       </c>
-      <c r="I14" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="J14" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="K14" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="L14" s="94" t="s">
+      <c r="I14" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="J14" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="K14" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="L14" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="M14" s="92" t="s">
+      <c r="M14" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="N14" s="105" t="s">
+      <c r="N14" s="93" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="15" ht="85.5" spans="1:14">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="77" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="77" t="s">
         <v>264</v>
       </c>
-      <c r="E15" s="100" t="s">
+      <c r="E15" s="88" t="s">
         <v>265</v>
       </c>
-      <c r="F15" s="89" t="s">
+      <c r="F15" s="77" t="s">
         <v>266</v>
       </c>
-      <c r="G15" s="92" t="s">
+      <c r="G15" s="80" t="s">
         <v>267</v>
       </c>
-      <c r="H15" s="92" t="s">
+      <c r="H15" s="80" t="s">
         <v>268</v>
       </c>
-      <c r="I15" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="J15" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="K15" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="L15" s="94" t="s">
+      <c r="I15" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="J15" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="K15" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="L15" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="M15" s="92" t="s">
+      <c r="M15" s="80" t="s">
         <v>269</v>
       </c>
-      <c r="N15" s="107" t="s">
+      <c r="N15" s="95" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="16" ht="342" spans="1:14">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="77" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="79" t="s">
         <v>272</v>
       </c>
-      <c r="D16" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="E16" s="101" t="s">
+      <c r="D16" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="E16" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="F16" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="G16" s="92" t="s">
+      <c r="F16" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" s="80" t="s">
         <v>274</v>
       </c>
-      <c r="H16" s="92" t="s">
+      <c r="H16" s="80" t="s">
         <v>275</v>
       </c>
-      <c r="I16" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="J16" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="K16" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="L16" s="94" t="s">
+      <c r="I16" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="J16" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="K16" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="L16" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="M16" s="92" t="s">
+      <c r="M16" s="80" t="s">
         <v>276</v>
       </c>
-      <c r="N16" s="112" t="s">
+      <c r="N16" s="101" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="17" ht="114" spans="1:14">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="77" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="89" t="s">
+      <c r="D17" s="77" t="s">
         <v>264</v>
       </c>
-      <c r="E17" s="100" t="s">
+      <c r="E17" s="88" t="s">
         <v>279</v>
       </c>
-      <c r="F17" s="89" t="s">
+      <c r="F17" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="G17" s="90" t="s">
+      <c r="G17" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="H17" s="90" t="s">
+      <c r="H17" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="I17" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="J17" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="K17" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="L17" s="94" t="s">
+      <c r="I17" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="K17" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="L17" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="M17" s="90" t="s">
+      <c r="M17" s="78" t="s">
         <v>283</v>
       </c>
-      <c r="N17" s="113" t="s">
+      <c r="N17" s="102" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="18" ht="258.6" customHeight="1" spans="1:14">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="77" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="79" t="s">
         <v>286</v>
       </c>
-      <c r="D18" s="90" t="s">
-        <v>248</v>
-      </c>
-      <c r="E18" s="90" t="s">
+      <c r="D18" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="E18" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="F18" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="G18" s="90" t="s">
+      <c r="F18" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="G18" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="H18" s="94" t="s">
+      <c r="H18" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="I18" s="90" t="s">
-        <v>248</v>
-      </c>
-      <c r="J18" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="K18" s="90" t="s">
-        <v>248</v>
-      </c>
-      <c r="L18" s="94" t="s">
+      <c r="I18" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="J18" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="K18" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="L18" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="M18" s="90" t="s">
+      <c r="M18" s="78" t="s">
         <v>290</v>
       </c>
-      <c r="N18" s="113" t="s">
+      <c r="N18" s="102" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="19" ht="42.75" spans="1:14">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="77" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="79" t="s">
         <v>293</v>
       </c>
-      <c r="D19" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="E19" s="90" t="s">
+      <c r="D19" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="E19" s="78" t="s">
         <v>294</v>
       </c>
-      <c r="F19" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="G19" s="90" t="s">
+      <c r="F19" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="G19" s="78" t="s">
         <v>295</v>
       </c>
-      <c r="H19" s="89" t="s">
+      <c r="H19" s="77" t="s">
         <v>296</v>
       </c>
-      <c r="I19" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="J19" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="K19" s="90" t="s">
-        <v>248</v>
-      </c>
-      <c r="L19" s="94" t="s">
+      <c r="I19" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="J19" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="K19" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="L19" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="M19" s="90" t="s">
+      <c r="M19" s="78" t="s">
         <v>297</v>
       </c>
-      <c r="N19" s="112" t="s">
+      <c r="N19" s="101" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="20" ht="42.75" spans="1:14">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="77" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C20" s="91" t="s">
+      <c r="C20" s="79" t="s">
         <v>300</v>
       </c>
-      <c r="D20" s="89" t="s">
+      <c r="D20" s="77" t="s">
         <v>264</v>
       </c>
-      <c r="E20" s="102" t="s">
+      <c r="E20" s="90" t="s">
         <v>301</v>
       </c>
-      <c r="F20" s="89" t="s">
+      <c r="F20" s="77" t="s">
         <v>266</v>
       </c>
-      <c r="G20" s="90" t="s">
+      <c r="G20" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="H20" s="94" t="s">
+      <c r="H20" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="I20" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="J20" s="92" t="s">
-        <v>248</v>
-      </c>
-      <c r="K20" s="90" t="s">
-        <v>248</v>
-      </c>
-      <c r="L20" s="94" t="s">
+      <c r="I20" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="J20" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="K20" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="L20" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="M20" s="94" t="s">
+      <c r="M20" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="N20" s="105" t="s">
+      <c r="N20" s="93" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="21" ht="99.75" spans="1:14">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="77" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="D21" s="89" t="s">
+      <c r="D21" s="77" t="s">
         <v>264</v>
       </c>
-      <c r="E21" s="103" t="s">
+      <c r="E21" s="91" t="s">
         <v>301</v>
       </c>
-      <c r="F21" s="89" t="s">
+      <c r="F21" s="77" t="s">
         <v>266</v>
       </c>
-      <c r="G21" s="92" t="s">
+      <c r="G21" s="80" t="s">
         <v>306</v>
       </c>
-      <c r="H21" s="92" t="s">
+      <c r="H21" s="80" t="s">
         <v>266</v>
       </c>
-      <c r="I21" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="J21" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="K21" s="90" t="s">
-        <v>248</v>
-      </c>
-      <c r="L21" s="94" t="s">
+      <c r="I21" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="J21" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="K21" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="L21" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="M21" s="92" t="s">
+      <c r="M21" s="80" t="s">
         <v>307</v>
       </c>
-      <c r="N21" s="112" t="s">
+      <c r="N21" s="101" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="22" ht="71.25" spans="1:15">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="77" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="79" t="s">
         <v>310</v>
       </c>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="77" t="s">
         <v>264</v>
       </c>
-      <c r="E22" s="103" t="s">
+      <c r="E22" s="91" t="s">
         <v>301</v>
       </c>
-      <c r="F22" s="89" t="s">
+      <c r="F22" s="77" t="s">
         <v>266</v>
       </c>
-      <c r="G22" s="92" t="s">
+      <c r="G22" s="80" t="s">
         <v>311</v>
       </c>
-      <c r="H22" s="97" t="s">
+      <c r="H22" s="85" t="s">
         <v>266</v>
       </c>
-      <c r="I22" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="J22" s="89" t="s">
+      <c r="I22" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="J22" s="77" t="s">
         <v>256</v>
       </c>
-      <c r="K22" s="90" t="s">
-        <v>248</v>
-      </c>
-      <c r="L22" s="94" t="s">
+      <c r="K22" s="78" t="s">
+        <v>248</v>
+      </c>
+      <c r="L22" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="M22" s="90" t="s">
+      <c r="M22" s="78" t="s">
         <v>312</v>
       </c>
-      <c r="N22" s="113" t="s">
+      <c r="N22" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="O22" s="111"/>
+      <c r="O22" s="99"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="77" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -6636,20 +6620,20 @@
       <c r="C23" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="114"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="103"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="77" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6658,20 +6642,20 @@
       <c r="C24" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="105"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="93"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="77" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -6680,20 +6664,20 @@
       <c r="C25" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="115"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="104"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="77" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -6702,20 +6686,20 @@
       <c r="C26" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="115"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="104"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="77" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -6724,20 +6708,20 @@
       <c r="C27" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="107"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="95"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="77" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -6746,20 +6730,20 @@
       <c r="C28" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="107"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="95"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="77" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -6768,20 +6752,20 @@
       <c r="C29" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D29" s="89"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="107"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="95"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="77" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -6790,20 +6774,20 @@
       <c r="C30" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="109"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="97"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="77" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -6812,20 +6796,20 @@
       <c r="C31" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="D31" s="90"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="116"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="105"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="77" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -6834,17 +6818,17 @@
       <c r="C32" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="105"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="93"/>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="6" t="s">
@@ -6863,10 +6847,10 @@
       </c>
     </row>
     <row r="35" spans="4:7">
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:N34">
@@ -6894,7 +6878,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6917,24 +6901,24 @@
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="45" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="61" t="s">
         <v>340</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="N1" s="81"/>
+      <c r="N1" s="70"/>
     </row>
     <row r="2" ht="42.75" spans="1:14">
       <c r="A2" s="23" t="s">
@@ -6976,7 +6960,7 @@
       <c r="M2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="82" t="s">
+      <c r="N2" s="71" t="s">
         <v>351</v>
       </c>
     </row>
@@ -6993,78 +6977,78 @@
       <c r="D3" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="39" t="s">
         <v>354</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="40" t="s">
         <v>356</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="I3" s="69" t="s">
-        <v>248</v>
-      </c>
-      <c r="J3" s="69" t="s">
-        <v>248</v>
-      </c>
-      <c r="K3" s="70">
+      <c r="I3" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="J3" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="K3" s="63">
         <v>0.84</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="N3" s="83" t="s">
+      <c r="N3" s="72" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:14">
-      <c r="A4" s="36" t="s">
+    <row r="4" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A4" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="43" t="s">
         <v>363</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="I4" t="s">
-        <v>248</v>
-      </c>
-      <c r="J4" t="s">
-        <v>248</v>
-      </c>
-      <c r="K4" s="16" t="s">
+      <c r="I4" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K4" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="73" t="s">
         <v>367</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="43" t="s">
         <v>368</v>
       </c>
     </row>
@@ -7081,16 +7065,16 @@
       <c r="D5" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="42" t="s">
         <v>264</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="45" t="s">
         <v>266</v>
       </c>
       <c r="I5" s="29" t="s">
@@ -7099,148 +7083,148 @@
       <c r="J5" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="K5" s="72">
+      <c r="K5" s="65">
         <v>0.788</v>
       </c>
-      <c r="L5" s="73" t="s">
+      <c r="L5" s="64" t="s">
         <v>371</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="N5" s="83" t="s">
+      <c r="N5" s="72" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="6" ht="25" customHeight="1" spans="1:14">
-      <c r="A6" s="36" t="s">
+    <row r="6" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A6" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="43" t="s">
         <v>374</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="I6" t="s">
-        <v>248</v>
-      </c>
-      <c r="J6" t="s">
-        <v>248</v>
-      </c>
-      <c r="K6" s="16" t="s">
+      <c r="I6" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K6" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="43" t="s">
         <v>376</v>
       </c>
-      <c r="M6" s="84" t="s">
+      <c r="M6" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="43" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:14">
-      <c r="A7" s="36" t="s">
+    <row r="7" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A7" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="45" t="s">
         <v>380</v>
       </c>
-      <c r="I7" t="s">
-        <v>248</v>
-      </c>
-      <c r="J7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K7" s="16" t="s">
+      <c r="I7" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K7" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="44" t="s">
         <v>381</v>
       </c>
-      <c r="M7" s="85" t="s">
+      <c r="M7" s="73" t="s">
         <v>382</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="43" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:14">
-      <c r="A8" s="36" t="s">
+    <row r="8" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A8" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="44" t="s">
         <v>384</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="49" t="s">
         <v>385</v>
       </c>
-      <c r="I8" t="s">
-        <v>248</v>
-      </c>
-      <c r="J8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K8" s="16" t="s">
+      <c r="I8" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="L8" s="74" t="s">
+      <c r="L8" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="M8" s="85" t="s">
+      <c r="M8" s="73" t="s">
         <v>387</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="43" t="s">
         <v>368</v>
       </c>
     </row>
@@ -7257,16 +7241,16 @@
       <c r="D9" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="50" t="s">
         <v>362</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="51" t="s">
         <v>389</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="52" t="s">
         <v>380</v>
       </c>
       <c r="I9" s="29" t="s">
@@ -7275,16 +7259,16 @@
       <c r="J9" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="K9" s="75">
+      <c r="K9" s="66">
         <v>1</v>
       </c>
-      <c r="L9" s="56" t="s">
+      <c r="L9" s="53" t="s">
         <v>390</v>
       </c>
-      <c r="M9" s="86" t="s">
+      <c r="M9" s="75" t="s">
         <v>391</v>
       </c>
-      <c r="N9" s="83" t="s">
+      <c r="N9" s="72" t="s">
         <v>360</v>
       </c>
     </row>
@@ -7301,16 +7285,16 @@
       <c r="D10" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="50" t="s">
         <v>362</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="53" t="s">
         <v>392</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="H10" s="52" t="s">
         <v>380</v>
       </c>
       <c r="I10" s="29" t="s">
@@ -7319,16 +7303,16 @@
       <c r="J10" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="66">
         <v>0.95</v>
       </c>
-      <c r="L10" s="76" t="s">
+      <c r="L10" s="67" t="s">
         <v>393</v>
       </c>
-      <c r="M10" s="87" t="s">
+      <c r="M10" s="73" t="s">
         <v>394</v>
       </c>
-      <c r="N10" s="83" t="s">
+      <c r="N10" s="72" t="s">
         <v>360</v>
       </c>
     </row>
@@ -7345,16 +7329,16 @@
       <c r="D11" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="50" t="s">
         <v>362</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="53" t="s">
         <v>395</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="45" t="s">
         <v>380</v>
       </c>
       <c r="I11" s="29" t="s">
@@ -7366,101 +7350,101 @@
       <c r="K11" s="29">
         <v>100</v>
       </c>
-      <c r="L11" s="54" t="s">
+      <c r="L11" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="M11" s="54" t="s">
+      <c r="M11" s="51" t="s">
         <v>397</v>
       </c>
-      <c r="N11" s="51" t="s">
+      <c r="N11" s="43" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="25" customHeight="1" spans="1:14">
-      <c r="A12" s="41" t="s">
+    <row r="12" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A12" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="51" t="s">
         <v>399</v>
       </c>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="29">
         <v>100</v>
       </c>
-      <c r="L12" s="58" t="s">
+      <c r="L12" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="51" t="s">
         <v>401</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="51" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="13" ht="25" customHeight="1" spans="1:14">
-      <c r="A13" s="37" t="s">
+    <row r="13" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A13" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="54">
         <v>44438</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="I13" t="s">
-        <v>248</v>
-      </c>
-      <c r="J13" t="s">
-        <v>248</v>
-      </c>
-      <c r="K13" s="77">
+      <c r="I13" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K13" s="65">
         <v>0.855</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="43" t="s">
         <v>405</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="51" t="s">
         <v>402</v>
       </c>
     </row>
@@ -7477,16 +7461,16 @@
       <c r="D14" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="55" t="s">
         <v>257</v>
       </c>
       <c r="F14" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="H14" s="61" t="s">
+      <c r="H14" s="44" t="s">
         <v>259</v>
       </c>
       <c r="I14" s="29" t="s">
@@ -7495,16 +7479,16 @@
       <c r="J14" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="K14" s="50" t="s">
+      <c r="K14" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="L14" s="61" t="s">
+      <c r="L14" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="M14" s="51" t="s">
+      <c r="M14" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="N14" s="83" t="s">
+      <c r="N14" s="72" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7521,16 +7505,16 @@
       <c r="D15" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="56" t="s">
         <v>266</v>
       </c>
       <c r="F15" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="43" t="s">
         <v>409</v>
       </c>
-      <c r="H15" s="61" t="s">
+      <c r="H15" s="44" t="s">
         <v>268</v>
       </c>
       <c r="I15" s="29" t="s">
@@ -7539,60 +7523,60 @@
       <c r="J15" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="K15" s="75">
+      <c r="K15" s="66">
         <v>0.99</v>
       </c>
-      <c r="L15" s="61" t="s">
+      <c r="L15" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="M15" s="51" t="s">
+      <c r="M15" s="43" t="s">
         <v>410</v>
       </c>
-      <c r="N15" s="83" t="s">
+      <c r="N15" s="72" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="16" ht="25" customHeight="1" spans="1:14">
-      <c r="A16" s="37" t="s">
+    <row r="16" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A16" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="56" t="s">
         <v>273</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="I16" t="s">
-        <v>248</v>
-      </c>
-      <c r="J16" t="s">
-        <v>248</v>
-      </c>
-      <c r="K16" s="16" t="s">
+      <c r="I16" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K16" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="M16" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="51" t="s">
         <v>402</v>
       </c>
     </row>
@@ -7609,16 +7593,16 @@
       <c r="D17" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="56" t="s">
         <v>266</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="H17" s="61" t="s">
+      <c r="H17" s="44" t="s">
         <v>282</v>
       </c>
       <c r="I17" s="29" t="s">
@@ -7627,280 +7611,280 @@
       <c r="J17" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="L17" s="61" t="s">
+      <c r="L17" s="44" t="s">
         <v>415</v>
       </c>
-      <c r="M17" s="51" t="s">
+      <c r="M17" s="43" t="s">
         <v>416</v>
       </c>
-      <c r="N17" s="83" t="s">
+      <c r="N17" s="72" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="18" ht="25" customHeight="1" spans="1:14">
-      <c r="A18" s="37" t="s">
+    <row r="18" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A18" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="56" t="s">
         <v>287</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="I18" t="s">
-        <v>248</v>
-      </c>
-      <c r="J18" t="s">
-        <v>248</v>
-      </c>
-      <c r="K18" s="16" t="s">
+      <c r="I18" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K18" s="45" t="s">
         <v>417</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="M18" s="43" t="s">
         <v>418</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="51" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" ht="25" customHeight="1" spans="1:14">
-      <c r="A19" s="37" t="s">
+    <row r="19" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A19" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G19" s="65" t="s">
+      <c r="G19" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="H19" s="65" t="s">
+      <c r="H19" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K19" s="16" t="s">
+      <c r="I19" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K19" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="L19" s="65" t="s">
+      <c r="L19" s="44" t="s">
         <v>297</v>
       </c>
-      <c r="M19" s="58" t="s">
+      <c r="M19" s="43" t="s">
         <v>419</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="51" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="20" ht="25" customHeight="1" spans="1:14">
-      <c r="A20" s="36" t="s">
+    <row r="20" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A20" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="57" t="s">
         <v>420</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="I20" t="s">
-        <v>248</v>
-      </c>
-      <c r="J20" t="s">
-        <v>248</v>
-      </c>
-      <c r="K20" s="16" t="s">
+      <c r="I20" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K20" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="43" t="s">
         <v>422</v>
       </c>
-      <c r="M20" s="20" t="s">
+      <c r="M20" s="43" t="s">
         <v>423</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="N20" s="51" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="21" ht="25" customHeight="1" spans="1:14">
-      <c r="A21" s="36" t="s">
+    <row r="21" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A21" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="58" t="s">
         <v>424</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="43" t="s">
         <v>425</v>
       </c>
-      <c r="H21" s="58" t="s">
+      <c r="H21" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="K21" s="78">
+      <c r="K21" s="68">
         <v>97.9</v>
       </c>
-      <c r="L21" s="58" t="s">
+      <c r="L21" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="M21" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="N21" s="58" t="s">
+      <c r="N21" s="43" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="22" ht="25" customHeight="1" spans="1:14">
-      <c r="A22" s="36" t="s">
+    <row r="22" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A22" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="58" t="s">
         <v>424</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="H22" s="58" t="s">
+      <c r="H22" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="I22" t="s">
-        <v>248</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="I22" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J22" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="K22" s="78">
+      <c r="K22" s="68">
         <v>100</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="51" t="s">
         <v>428</v>
       </c>
-      <c r="N22" s="58" t="s">
+      <c r="N22" s="43" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="23" ht="25" customHeight="1" spans="1:14">
-      <c r="A23" s="36" t="s">
+    <row r="23" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A23" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="56" t="s">
         <v>362</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="K23" s="79">
+      <c r="K23" s="66">
         <v>0.95</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="43" t="s">
         <v>433</v>
       </c>
-      <c r="N23" s="58" t="s">
+      <c r="N23" s="43" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7917,16 +7901,16 @@
       <c r="D24" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="56" t="s">
         <v>362</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="43" t="s">
         <v>434</v>
       </c>
-      <c r="H24" s="61" t="s">
+      <c r="H24" s="44" t="s">
         <v>435</v>
       </c>
       <c r="I24" s="29" t="s">
@@ -7935,456 +7919,456 @@
       <c r="J24" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="K24" s="80">
+      <c r="K24" s="69">
         <v>0.9527</v>
       </c>
-      <c r="L24" s="61" t="s">
+      <c r="L24" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="M24" s="87" t="s">
+      <c r="M24" s="73" t="s">
         <v>437</v>
       </c>
-      <c r="N24" s="83" t="s">
+      <c r="N24" s="72" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="25" ht="25" customHeight="1" spans="1:14">
-      <c r="A25" s="36" t="s">
+    <row r="25" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A25" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E25" s="59">
+      <c r="E25" s="54">
         <v>44438</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="I25" t="s">
-        <v>248</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="I25" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J25" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="K25" s="77">
+      <c r="K25" s="65">
         <v>0.756</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="44" t="s">
         <v>440</v>
       </c>
-      <c r="M25" s="85" t="s">
+      <c r="M25" s="73" t="s">
         <v>441</v>
       </c>
-      <c r="N25" s="58" t="s">
+      <c r="N25" s="43" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="26" ht="25" customHeight="1" spans="1:14">
-      <c r="A26" s="36" t="s">
+    <row r="26" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A26" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="56" t="s">
         <v>266</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="44" t="s">
         <v>442</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="J26" t="s">
-        <v>248</v>
-      </c>
-      <c r="K26" s="79">
+      <c r="J26" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" s="66">
         <v>0.9</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="44" t="s">
         <v>443</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="44" t="s">
         <v>444</v>
       </c>
-      <c r="N26" s="58" t="s">
+      <c r="N26" s="43" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="27" ht="25" customHeight="1" spans="1:14">
-      <c r="A27" s="36" t="s">
+    <row r="27" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A27" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="56" t="s">
         <v>266</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="I27" t="s">
-        <v>248</v>
-      </c>
-      <c r="J27" t="s">
-        <v>248</v>
-      </c>
-      <c r="K27" s="79">
+      <c r="I27" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K27" s="66">
         <v>0.9</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="44" t="s">
         <v>446</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="M27" s="44" t="s">
         <v>447</v>
       </c>
-      <c r="N27" s="58" t="s">
+      <c r="N27" s="43" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="28" ht="25" customHeight="1" spans="1:14">
-      <c r="A28" s="36" t="s">
+    <row r="28" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A28" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="E28" s="63" t="s">
+      <c r="E28" s="56" t="s">
         <v>266</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="43" t="s">
         <v>448</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="I28" t="s">
-        <v>248</v>
-      </c>
-      <c r="J28" t="s">
-        <v>248</v>
-      </c>
-      <c r="K28" s="79">
+      <c r="I28" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" s="66">
         <v>0.87</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="44" t="s">
         <v>449</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="M28" s="44" t="s">
         <v>450</v>
       </c>
-      <c r="N28" s="58" t="s">
+      <c r="N28" s="43" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="29" ht="25" customHeight="1" spans="1:14">
-      <c r="A29" s="36" t="s">
+    <row r="29" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A29" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="59">
         <v>44440</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="44" t="s">
         <v>452</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="I29" t="s">
-        <v>248</v>
-      </c>
-      <c r="J29" t="s">
-        <v>248</v>
-      </c>
-      <c r="K29" s="16" t="s">
+      <c r="I29" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="44" t="s">
         <v>453</v>
       </c>
-      <c r="M29" s="85" t="s">
+      <c r="M29" s="73" t="s">
         <v>454</v>
       </c>
-      <c r="N29" s="58" t="s">
+      <c r="N29" s="43" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="30" ht="25" customHeight="1" spans="1:14">
-      <c r="A30" s="36" t="s">
+    <row r="30" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A30" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="34" t="s">
         <v>329</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="43" t="s">
         <v>455</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="43" t="s">
         <v>456</v>
       </c>
-      <c r="I30" t="s">
-        <v>248</v>
-      </c>
-      <c r="J30" t="s">
-        <v>248</v>
-      </c>
-      <c r="K30" s="16" t="s">
+      <c r="I30" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K30" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="43" t="s">
         <v>457</v>
       </c>
-      <c r="M30" s="20" t="s">
+      <c r="M30" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="N30" s="58" t="s">
+      <c r="N30" s="43" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="31" ht="25" customHeight="1" spans="1:14">
-      <c r="A31" s="36" t="s">
+    <row r="31" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A31" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="46" t="s">
         <v>460</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="43" t="s">
         <v>461</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="I31" t="s">
-        <v>248</v>
-      </c>
-      <c r="J31" t="s">
-        <v>248</v>
-      </c>
-      <c r="K31" s="16" t="s">
+      <c r="I31" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="L31" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="M31" s="20" t="s">
+      <c r="M31" s="43" t="s">
         <v>463</v>
       </c>
-      <c r="N31" s="58" t="s">
+      <c r="N31" s="43" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="32" ht="25" customHeight="1" spans="1:14">
-      <c r="A32" s="36" t="s">
+    <row r="32" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A32" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="43" t="s">
         <v>464</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="43" t="s">
         <v>465</v>
       </c>
-      <c r="I32" t="s">
-        <v>248</v>
-      </c>
-      <c r="J32" t="s">
-        <v>248</v>
-      </c>
-      <c r="K32" s="16" t="s">
+      <c r="I32" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K32" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="L32" s="20" t="s">
+      <c r="L32" s="43" t="s">
         <v>466</v>
       </c>
-      <c r="M32" s="20" t="s">
+      <c r="M32" s="43" t="s">
         <v>467</v>
       </c>
-      <c r="N32" s="58" t="s">
+      <c r="N32" s="43" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="33" ht="25" customHeight="1" spans="1:14">
-      <c r="A33" s="36" t="s">
+    <row r="33" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A33" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="43" t="s">
         <v>468</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="43" t="s">
         <v>469</v>
       </c>
-      <c r="I33" t="s">
-        <v>248</v>
-      </c>
-      <c r="J33" t="s">
-        <v>248</v>
-      </c>
-      <c r="K33" s="16" t="s">
+      <c r="I33" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K33" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="L33" s="20" t="s">
+      <c r="L33" s="43" t="s">
         <v>470</v>
       </c>
-      <c r="M33" s="20" t="s">
+      <c r="M33" s="43" t="s">
         <v>471</v>
       </c>
-      <c r="N33" s="58" t="s">
+      <c r="N33" s="43" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="34" ht="25" customHeight="1" spans="1:14">
-      <c r="A34" s="36" t="s">
+    <row r="34" s="29" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="A34" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="34" t="s">
         <v>337</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="I34" t="s">
-        <v>248</v>
-      </c>
-      <c r="J34" t="s">
-        <v>248</v>
-      </c>
-      <c r="K34" s="77">
+      <c r="I34" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K34" s="65">
         <v>0.906</v>
       </c>
-      <c r="L34" s="20" t="s">
+      <c r="L34" s="43" t="s">
         <v>474</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="N34" s="58" t="s">
+      <c r="N34" s="43" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8444,13 +8428,14 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="M6" r:id="rId3" display="https://www.poresto.net/campeche/2021/7/15/regreso-clases-en-campeche-sera-en-semaforo-verde-seduc-263676.html                                         http://campechehoy.mx/2021/07/31/en-campeche-sera-dificil-el-regreso-a-clases-presenciales/                                                                                                https://educacioncampeche.gob.mx/aprendamosencasa&#10;&#10;https://kidstudia.com/guia/todo-sobre-el-regreso-a-clases-en-mexico/campeche/"/>
-    <hyperlink ref="M7" r:id="rId4" display="https://www.elheraldodesaltillo.mx/2021/07/27/habra-periodo-de-diagnostico-y-otro-de-recuperacion-al-regreso-a-clases-en-coahuila/                                               https://www.elheraldodesaltillo.mx/2021/07/05/volverian-el-23-de-agosto-a-clases-presenciales-90-escuelas-en-coahuila/                                                     https://vanguardia.com.mx/articulo/regreso-clases-sera-obligatorio-para-los-profesores-en-coahuila                                                          https://www.saludcoahuila.gob.mx/COVID19/documentos/MANUAL%20REAPERTURA%20ESCOLAR%202021.pdf"/>
-    <hyperlink ref="M8" r:id="rId5" display="https://www.milenio.com/estados/colima-pone-a-prueba-el-regreso-a-clases                                                                                https://www.colimanoticias.com/antes-del-regreso-a-clases-preservar-la-salud-y-vida-del-alumnado-y-docentes-se/                                                             https://diariodecolima.com/noticias/detalle/2021-07-23-flores-colima-est-preparado-para-iniciar-el-ciclo-escolar                      https://elcomentario.ucol.mx/elabora-colima-su-estrategia-para-regreso-a-clases-presenciales/"/>
+    <hyperlink ref="M7" r:id="rId4" display="https://www.elheraldodesaltillo.mx/2021/07/27/habra-periodo-de-diagnostico-y-otro-de-recuperacion-al-regreso-a-clases-en-coahuila/                                               https://www.elheraldodesaltillo.mx/2021/07/05/volverian-el-23-de-agosto-a-clases-presenciales-90-escuelas-en-coahuila/                                                     https://vanguardia.com.mx/articulo/regreso-clases-sera-obligatorio-para-los-profesores-en-coahuila                                                          https://www.saludcoahuila.gob.mx/COVID19/documentos/MANUAL%20REAPERTURA%20ESCOLAR%202021.pdf" tooltip="https://www.elheraldodesaltillo.mx/2021/07/27/habra-periodo-de-diagnostico-y-otro-de-recuperacion-al-regreso-a-clases-en-coahuila/                                               https://www.elheraldodesaltillo.mx/2021/07/05/volverian-el-23-de-agosto-a-clas"/>
+    <hyperlink ref="M8" r:id="rId5" display="https://www.milenio.com/estados/colima-pone-a-prueba-el-regreso-a-clases                                                                                https://www.colimanoticias.com/antes-del-regreso-a-clases-preservar-la-salud-y-vida-del-alumnado-y-docentes-se/                                                             https://diariodecolima.com/noticias/detalle/2021-07-23-flores-colima-est-preparado-para-iniciar-el-ciclo-escolar                      https://elcomentario.ucol.mx/elabora-colima-su-estrategia-para-regreso-a-clases-presenciales/" tooltip="https://www.milenio.com/estados/colima-pone-a-prueba-el-regreso-a-clases                                                                                https://www.colimanoticias.com/antes-del-regreso-a-clases-preservar-la-salud-y-vida-del-alumnado-y-doce"/>
     <hyperlink ref="M29" r:id="rId6" display="https://heraldodemexico.com.mx/nacional/2021/7/22/tabasco-no-volvera-clases-presenciales-en-agosto-analizan-sea-en-septiembre-318653.html&#10;&#10;https://www.elheraldodetabasco.com.mx/local/tabasco-si-regresa-a-clases-presenciales-en-septiembre-7015316.html"/>
     <hyperlink ref="M24" r:id="rId7" display="https://queretaro.gob.mx/regresoaclaseguro.aspx&#10;https://www.queretaro.gob.mx/covid19/contenido/noticiasContenido.aspx?q=vUYGbsxLnli7glS/gQWD0HldeVLSaRLz7RohSiloFmz7sxVv8axXyw==&#10;https://www.queretaro.gob.mx/pdf/SEDEQ_GuiaRegresoaClases.pdf"/>
     <hyperlink ref="M25" r:id="rId8" display="https://qroo.gob.mx/seq/detallan-acciones-de-la-seq-para-el-regreso-clases-destacando-cuatro-importantes-temas"/>
     <hyperlink ref="M9" r:id="rId9" display="https://www.unomasuno.com.mx/regreso-a-clases-en-chiapas-el-proximo-ciclo-escolar/  ;  https://kidstudia.com/guia/todo-sobre-el-regreso-a-clases-en-mexico/chiapas/ ;  https://planeacion.sep.gob.mx/entidadfederativa.aspxhttps://www.eluniversal.com.mx/estados/regreso-clases-presenciales-en-chiapas-sera-el-proximo-30-de-agosto-anuncian-autoridades"/>
     <hyperlink ref="M10" r:id="rId10" display="https://e-oaxaca.com/nota/2021-08-03/nacion/sera-obligatorio-regreso-clases-presenciales-el-30-de-agosto-gobernador-de ;   https://www.elfinanciero.com.mx/nacional/2021/06/01/cuantos-maestros-y-maestras-han-sido-vacunados-contra-covid-en-mexico-esto-dice-la-sep/ ;  https://nortedigital.mx/oficial-regresa-chihuahua-a-las-aulas-el-30-de-agosto/  ; https://notigram.com/chihuahua/es-obligatorio-el-regreso-a-clases-gobernador-de-chihuahua-20210803-571139 ;  https://heraldodemexico.com.mx/nacional/2021/8/3/javier-corral-anuncia-regreso-clases-presenciales-el-30-de-agosto-en-chihuahua-322320.html  ; https://www.omnia.com.mx/noticia/185917         http://www.chihuahua.gob.mx/contenidos/podemos-pensar-en-regreso-clases-presenciales-el-proximo-ciclo-javier-corral"/>
+    <hyperlink ref="M4" r:id="rId11" display="https://www.sandiegouniontribune.com/en-espanol/noticias/bc/articulo/2021-07-26/baja-california-anuncia-regreso-a-clases-presenciales-semaforo-epidemiologico-regional-permanece-verde                                                                                                                  http://www.educacionbc.edu.mx/regresoseguro/                                    https://www.jornada.com.mx/notas/2021/07/26/estados/planean-regreso-a-clases-gradual-en-baja-california-a-partir-de-agosto/#:~:text=El%20gobierno%20de%20Baja%20California,forma%20gradual%2C%20escalonada%20y%20segura." tooltip="https://www.sandiegouniontribune.com/en-espanol/noticias/bc/articulo/2021-07-26/baja-california-anuncia-regreso-a-clases-presenciales-semaforo-epidemiologico-regional-permanece-verde                                                                         "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/Resources/data/Versión_2.0/Retorno a la presencialidad_ Estados 2021 FINAL.xlsx
+++ b/Resources/data/Versión_2.0/Retorno a la presencialidad_ Estados 2021 FINAL.xlsx
@@ -2449,7 +2449,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2477,12 +2477,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2847,139 +2841,139 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3056,97 +3050,97 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3155,16 +3149,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="48" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="48" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="48" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="48" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="48" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="48" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3176,7 +3170,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3192,7 +3186,7 @@
     <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3259,19 +3253,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6877,14 +6871,14 @@
   <sheetPr/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5583333333333" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="11.5583333333333" customWidth="1"/>
     <col min="3" max="3" width="31.1083333333333" customWidth="1"/>
     <col min="4" max="4" width="15.775" customWidth="1"/>
     <col min="5" max="5" width="31.4416666666667" customWidth="1"/>
